--- a/data/trans_bre/P36BPD07_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Habitat-trans_bre.xlsx
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.1566942240155411</v>
+        <v>-0.1566942240155383</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5.176204035061305</v>
+        <v>-5.176204035061291</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.001749977044653004</v>
+        <v>-0.01498137448828833</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.0690654494538963</v>
+        <v>-0.2066048696026878</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.388612699251674</v>
+        <v>-3.404207586991161</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6716844467756024</v>
+        <v>-9.992588902102495</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.03706066924962021</v>
+        <v>-0.2824054623096342</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.008963530280253752</v>
+        <v>-0.3458281652752502</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.404207586991168</v>
+        <v>3.388612699251666</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.992588902102513</v>
+        <v>-0.6716844467756012</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.03886125240574435</v>
+        <v>0.3978052675783458</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.14053769128898</v>
+        <v>-0.02207854686549355</v>
       </c>
     </row>
     <row r="7">
@@ -653,16 +653,16 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>3.920851563587779</v>
+        <v>-3.920851563587771</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.826925881420374</v>
+        <v>-4.826925881420363</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.04735513416493694</v>
+        <v>-0.2279135216313425</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.07182394356949472</v>
+        <v>-0.1471846707875786</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6484720401445764</v>
+        <v>-7.253230002460974</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8114178454272524</v>
+        <v>-8.706785937646098</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.008118521694084157</v>
+        <v>-0.3754203750501065</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.011987140433016</v>
+        <v>-0.2492305991713233</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.253230002460977</v>
+        <v>-0.6484720401445695</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.70678593764608</v>
+        <v>-0.811417845427248</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.08964301660464119</v>
+        <v>-0.03152633178473706</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1349063962155256</v>
+        <v>-0.02699134341150574</v>
       </c>
     </row>
     <row r="10">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2822507521627937</v>
+        <v>-0.2822507521627854</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.757614178643519</v>
+        <v>-2.757614178643519</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.003420088380433347</v>
+        <v>-0.01615383932762233</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.03631314331805757</v>
+        <v>-0.114613278391397</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.755004585722831</v>
+        <v>-3.914495358525684</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.311532690755035</v>
+        <v>-8.087652947535327</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.04447553324518663</v>
+        <v>-0.2036939457272212</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.0167379394720219</v>
+        <v>-0.291083716713532</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.914495358525684</v>
+        <v>3.755004585722835</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.087652947535338</v>
+        <v>1.31153269075505</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.04874364210838061</v>
+        <v>0.238597432019526</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1109819219148294</v>
+        <v>0.06206536058740072</v>
       </c>
     </row>
     <row r="13">
@@ -781,16 +781,16 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.852323611122832</v>
+        <v>-3.852323611122831</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6.214293668011484</v>
+        <v>-6.21429366801148</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.04590405752493164</v>
+        <v>-0.2395902498349527</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.08887678731007098</v>
+        <v>-0.2065944275140447</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7512957602016151</v>
+        <v>-7.099276553342744</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.490236410918404</v>
+        <v>-10.57812934576312</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.008941531546700542</v>
+        <v>-0.4061159006667391</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03388949265236288</v>
+        <v>-0.3252127107474483</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.099276553342741</v>
+        <v>-0.7512957602016112</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.57812934576312</v>
+        <v>-2.4902364109184</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.08686370699855794</v>
+        <v>-0.04942634904395356</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1547581269306035</v>
+        <v>-0.08775831328587132</v>
       </c>
     </row>
     <row r="16">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>2.342507396707072</v>
+        <v>-2.342507396707072</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.834285552867268</v>
+        <v>-4.834285552867285</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0.0277588000431698</v>
+        <v>-0.1500445420015309</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.06764550763206384</v>
+        <v>-0.1694159426955679</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6093764545235103</v>
+        <v>-3.948665399419546</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.706290981960218</v>
+        <v>-6.841415135900066</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.006402011575178669</v>
+        <v>-0.239199562521971</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.0375067876574367</v>
+        <v>-0.2302520103787287</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.948665399419542</v>
+        <v>-0.609376454523496</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.841415135900078</v>
+        <v>-2.706290981960215</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.04736220995724177</v>
+        <v>-0.04386577777757507</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.0972741298970603</v>
+        <v>-0.09857350759162165</v>
       </c>
     </row>
     <row r="19">

--- a/data/trans_bre/P36BPD07_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Habitat-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P36BPD07_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-0.1566942240155383</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-5.176204035061291</v>
+        <v>-5.176204035061286</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.01498137448828833</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.2066048696026878</v>
+        <v>-0.2066048696026876</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.404207586991161</v>
+        <v>-3.531659339776986</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.992588902102495</v>
+        <v>-9.812385647548076</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.2824054623096342</v>
+        <v>-0.2937725101080333</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3458281652752502</v>
+        <v>-0.3437089401935719</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.388612699251666</v>
+        <v>3.233772276495712</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.6716844467756012</v>
+        <v>-1.045512756211385</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.3978052675783458</v>
+        <v>0.3682126084725995</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.02207854686549355</v>
+        <v>-0.04299535611038004</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-3.920851563587771</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-4.826925881420363</v>
+        <v>-4.826925881420369</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.2279135216313425</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.1471846707875786</v>
+        <v>-0.1471846707875788</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.253230002460974</v>
+        <v>-7.069668623297177</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.706785937646098</v>
+        <v>-9.348466421586474</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3754203750501065</v>
+        <v>-0.3744633946746667</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2492305991713233</v>
+        <v>-0.2579739323297223</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.6484720401445695</v>
+        <v>-1.070053616487879</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.811417845427248</v>
+        <v>-0.8603081433976814</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.03152633178473706</v>
+        <v>-0.06507433361686032</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.02699134341150574</v>
+        <v>-0.02594069159239754</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-0.2822507521627854</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-2.757614178643519</v>
+        <v>-2.757614178643522</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.01615383932762233</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.114613278391397</v>
+        <v>-0.1146132783913971</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.914495358525684</v>
+        <v>-4.257476635277822</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.087652947535327</v>
+        <v>-7.332892251006037</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2036939457272212</v>
+        <v>-0.2281641008264687</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.291083716713532</v>
+        <v>-0.2721544517771625</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.755004585722835</v>
+        <v>3.680240733625979</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.31153269075505</v>
+        <v>1.890161988615297</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.238597432019526</v>
+        <v>0.2403542677513417</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.06206536058740072</v>
+        <v>0.08925877706010744</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-3.852323611122831</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-6.21429366801148</v>
+        <v>-6.214293668011487</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.2395902498349527</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.2065944275140447</v>
+        <v>-0.2065944275140449</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.099276553342744</v>
+        <v>-6.696469458576821</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-10.57812934576312</v>
+        <v>-10.21055298775417</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4061159006667391</v>
+        <v>-0.3843617684004434</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3252127107474483</v>
+        <v>-0.3178405898653021</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.7512957602016112</v>
+        <v>-0.4840436347195274</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.4902364109184</v>
+        <v>-2.321696176009968</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.04942634904395356</v>
+        <v>-0.03664077617062227</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.08775831328587132</v>
+        <v>-0.08438256637998393</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.948665399419546</v>
+        <v>-4.088453318492478</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.841415135900066</v>
+        <v>-7.195418167944141</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.239199562521971</v>
+        <v>-0.248151616117464</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2302520103787287</v>
+        <v>-0.2366887407317572</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.609376454523496</v>
+        <v>-0.684401280237638</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.706290981960215</v>
+        <v>-2.630730441926867</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.04386577777757507</v>
+        <v>-0.04776722582054876</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.09857350759162165</v>
+        <v>-0.09753495503482146</v>
       </c>
     </row>
     <row r="19">
